--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H2">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I2">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J2">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N2">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q2">
-        <v>245.7900183143973</v>
+        <v>246.8488558902117</v>
       </c>
       <c r="R2">
-        <v>2212.110164829576</v>
+        <v>2221.639703011905</v>
       </c>
       <c r="S2">
-        <v>0.2869615352153312</v>
+        <v>0.2280493261132506</v>
       </c>
       <c r="T2">
-        <v>0.2869615352153312</v>
+        <v>0.2280493261132506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H3">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I3">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J3">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.922368</v>
       </c>
       <c r="O3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q3">
-        <v>316.383177324544</v>
+        <v>384.90709624576</v>
       </c>
       <c r="R3">
-        <v>2847.448595920896</v>
+        <v>3464.16386621184</v>
       </c>
       <c r="S3">
-        <v>0.3693795334081613</v>
+        <v>0.3555933188286424</v>
       </c>
       <c r="T3">
-        <v>0.3693795334081613</v>
+        <v>0.3555933188286425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H4">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I4">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J4">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N4">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q4">
-        <v>77.69260316224</v>
+        <v>158.7597964666634</v>
       </c>
       <c r="R4">
-        <v>699.23342846016</v>
+        <v>1428.83816819997</v>
       </c>
       <c r="S4">
-        <v>0.09070664802097032</v>
+        <v>0.1466689584909477</v>
       </c>
       <c r="T4">
-        <v>0.09070664802097032</v>
+        <v>0.1466689584909478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H5">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I5">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J5">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N5">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q5">
-        <v>82.46313974929068</v>
+        <v>120.75563701894</v>
       </c>
       <c r="R5">
-        <v>742.168257743616</v>
+        <v>1086.80073317046</v>
       </c>
       <c r="S5">
-        <v>0.09627628226490405</v>
+        <v>0.1115591220677703</v>
       </c>
       <c r="T5">
-        <v>0.09627628226490405</v>
+        <v>0.1115591220677703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H6">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I6">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J6">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N6">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q6">
-        <v>60.48620159737467</v>
+        <v>130.534566409665</v>
       </c>
       <c r="R6">
-        <v>544.375814376372</v>
+        <v>1174.811097686985</v>
       </c>
       <c r="S6">
-        <v>0.0706180559681009</v>
+        <v>0.1205933071751776</v>
       </c>
       <c r="T6">
-        <v>0.07061805596810089</v>
+        <v>0.1205933071751777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I7">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J7">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N7">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O7">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P7">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q7">
-        <v>0.576243044650889</v>
+        <v>0.4756965902201112</v>
       </c>
       <c r="R7">
-        <v>5.186187401858001</v>
+        <v>4.281269311981001</v>
       </c>
       <c r="S7">
-        <v>0.0006727677140194498</v>
+        <v>0.0004394684611473993</v>
       </c>
       <c r="T7">
-        <v>0.0006727677140194497</v>
+        <v>0.0004394684611473993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I8">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J8">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.922368</v>
       </c>
       <c r="O8">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P8">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q8">
         <v>0.7417453590186667</v>
@@ -948,10 +948,10 @@
         <v>6.675708231168</v>
       </c>
       <c r="S8">
-        <v>0.0008659928032170039</v>
+        <v>0.0006852554720653479</v>
       </c>
       <c r="T8">
-        <v>0.0008659928032170036</v>
+        <v>0.000685255472065348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I9">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J9">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N9">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O9">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P9">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q9">
-        <v>0.1821466245866667</v>
+        <v>0.3059422478215557</v>
       </c>
       <c r="R9">
-        <v>1.63931962128</v>
+        <v>2.753480230394001</v>
       </c>
       <c r="S9">
-        <v>0.0002126574357418435</v>
+        <v>0.0002826422800043671</v>
       </c>
       <c r="T9">
-        <v>0.0002126574357418434</v>
+        <v>0.0002826422800043671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I10">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J10">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N10">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O10">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P10">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q10">
-        <v>0.1933309214364445</v>
+        <v>0.2327053312546667</v>
       </c>
       <c r="R10">
-        <v>1.739978292928</v>
+        <v>2.094347981292</v>
       </c>
       <c r="S10">
-        <v>0.0002257151791617203</v>
+        <v>0.0002149829448640026</v>
       </c>
       <c r="T10">
-        <v>0.0002257151791617202</v>
+        <v>0.0002149829448640026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I11">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J11">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N11">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O11">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P11">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q11">
-        <v>0.1418070319001112</v>
+        <v>0.2515500747330001</v>
       </c>
       <c r="R11">
-        <v>1.276263287101</v>
+        <v>2.263950672597</v>
       </c>
       <c r="S11">
-        <v>0.000165560684105298</v>
+        <v>0.000232392509253162</v>
       </c>
       <c r="T11">
-        <v>0.000165560684105298</v>
+        <v>0.000232392509253162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H12">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I12">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J12">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N12">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O12">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P12">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q12">
-        <v>12.12659645228333</v>
+        <v>5.425411320539333</v>
       </c>
       <c r="R12">
-        <v>109.13936807055</v>
+        <v>48.828701884854</v>
       </c>
       <c r="S12">
-        <v>0.01415788468038118</v>
+        <v>0.005012222524079591</v>
       </c>
       <c r="T12">
-        <v>0.01415788468038118</v>
+        <v>0.005012222524079591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H13">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I13">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J13">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.922368</v>
       </c>
       <c r="O13">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P13">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q13">
-        <v>15.6094667392</v>
+        <v>8.459748819967999</v>
       </c>
       <c r="R13">
-        <v>140.4852006528</v>
+        <v>76.13773937971199</v>
       </c>
       <c r="S13">
-        <v>0.01822415967130063</v>
+        <v>0.007815470768635509</v>
       </c>
       <c r="T13">
-        <v>0.01822415967130063</v>
+        <v>0.007815470768635511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H14">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I14">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J14">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N14">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O14">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P14">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q14">
-        <v>3.833137132</v>
+        <v>3.489330318710667</v>
       </c>
       <c r="R14">
-        <v>34.498234188</v>
+        <v>31.40397286839601</v>
       </c>
       <c r="S14">
-        <v>0.004475213939252067</v>
+        <v>0.003223589693777694</v>
       </c>
       <c r="T14">
-        <v>0.004475213939252067</v>
+        <v>0.003223589693777694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H15">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I15">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J15">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N15">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O15">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P15">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q15">
-        <v>4.068502149866667</v>
+        <v>2.654049165992</v>
       </c>
       <c r="R15">
-        <v>36.6165193488</v>
+        <v>23.886442493928</v>
       </c>
       <c r="S15">
-        <v>0.004750004214814068</v>
+        <v>0.002451921932524989</v>
       </c>
       <c r="T15">
-        <v>0.004750004214814068</v>
+        <v>0.002451921932524989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H16">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I16">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J16">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N16">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O16">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P16">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q16">
-        <v>2.984221095441667</v>
+        <v>2.868977098422</v>
       </c>
       <c r="R16">
-        <v>26.857989858975</v>
+        <v>25.820793885798</v>
       </c>
       <c r="S16">
-        <v>0.003484098633633392</v>
+        <v>0.002650481370756192</v>
       </c>
       <c r="T16">
-        <v>0.003484098633633392</v>
+        <v>0.002650481370756193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H17">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I17">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J17">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N17">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O17">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P17">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q17">
-        <v>0.8328413671308891</v>
+        <v>0.4647839510833334</v>
       </c>
       <c r="R17">
-        <v>7.495572304178002</v>
+        <v>4.183055559750001</v>
       </c>
       <c r="S17">
-        <v>0.0009723480186124222</v>
+        <v>0.0004293869074278791</v>
       </c>
       <c r="T17">
-        <v>0.0009723480186124222</v>
+        <v>0.0004293869074278791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H18">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I18">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J18">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.922368</v>
       </c>
       <c r="O18">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P18">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q18">
-        <v>1.072041085098667</v>
+        <v>0.7247294719999999</v>
       </c>
       <c r="R18">
-        <v>9.648369765888001</v>
+        <v>6.522565247999999</v>
       </c>
       <c r="S18">
-        <v>0.001251615332890852</v>
+        <v>0.0006695354819773564</v>
       </c>
       <c r="T18">
-        <v>0.001251615332890852</v>
+        <v>0.0006695354819773565</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H19">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I19">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J19">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N19">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O19">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P19">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q19">
-        <v>0.2632556613866667</v>
+        <v>0.2989238301666667</v>
       </c>
       <c r="R19">
-        <v>2.369300952480001</v>
+        <v>2.690314471500001</v>
       </c>
       <c r="S19">
-        <v>0.0003073527935093539</v>
+        <v>0.0002761583714166335</v>
       </c>
       <c r="T19">
-        <v>0.0003073527935093539</v>
+        <v>0.0002761583714166335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H20">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I20">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J20">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N20">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O20">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P20">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q20">
-        <v>0.2794202731164445</v>
+        <v>0.227366993</v>
       </c>
       <c r="R20">
-        <v>2.514782458048</v>
+        <v>2.046302937</v>
       </c>
       <c r="S20">
-        <v>0.000326225088771578</v>
+        <v>0.0002100511640900913</v>
       </c>
       <c r="T20">
-        <v>0.000326225088771578</v>
+        <v>0.0002100511640900913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H21">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I21">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J21">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N21">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O21">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P21">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q21">
-        <v>0.2049530374601111</v>
+        <v>0.24577943175</v>
       </c>
       <c r="R21">
-        <v>1.844577337141</v>
+        <v>2.21201488575</v>
       </c>
       <c r="S21">
-        <v>0.0002392840794753858</v>
+        <v>0.0002270613472400044</v>
       </c>
       <c r="T21">
-        <v>0.0002392840794753858</v>
+        <v>0.0002270613472400044</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H22">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I22">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J22">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N22">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O22">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P22">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q22">
-        <v>9.608219555970223</v>
+        <v>3.261180188791556</v>
       </c>
       <c r="R22">
-        <v>86.47397600373201</v>
+        <v>29.350621699124</v>
       </c>
       <c r="S22">
-        <v>0.01121766235006492</v>
+        <v>0.003012815034956327</v>
       </c>
       <c r="T22">
-        <v>0.01121766235006492</v>
+        <v>0.003012815034956327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H23">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I23">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J23">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.922368</v>
       </c>
       <c r="O23">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P23">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q23">
-        <v>12.36778878327467</v>
+        <v>5.085101133141332</v>
       </c>
       <c r="R23">
-        <v>111.310099049472</v>
+        <v>45.765910198272</v>
       </c>
       <c r="S23">
-        <v>0.01443947838405593</v>
+        <v>0.004697829700075153</v>
       </c>
       <c r="T23">
-        <v>0.01443947838405593</v>
+        <v>0.004697829700075153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H24">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I24">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J24">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N24">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O24">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P24">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q24">
-        <v>3.037094810346667</v>
+        <v>2.097414230041778</v>
       </c>
       <c r="R24">
-        <v>27.33385329312</v>
+        <v>18.876728070376</v>
       </c>
       <c r="S24">
-        <v>0.003545829059082439</v>
+        <v>0.001937679232972035</v>
       </c>
       <c r="T24">
-        <v>0.003545829059082438</v>
+        <v>0.001937679232972035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H25">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I25">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J25">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N25">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O25">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P25">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q25">
-        <v>3.223580670279111</v>
+        <v>1.595332049285333</v>
       </c>
       <c r="R25">
-        <v>29.012226032512</v>
+        <v>14.357988443568</v>
       </c>
       <c r="S25">
-        <v>0.003763552581905541</v>
+        <v>0.001473834656654034</v>
       </c>
       <c r="T25">
-        <v>0.00376355258190554</v>
+        <v>0.001473834656654034</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H26">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I26">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J26">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N26">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O26">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P26">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q26">
-        <v>2.364476430083778</v>
+        <v>1.724523860532</v>
       </c>
       <c r="R26">
-        <v>21.280287870754</v>
+        <v>15.520714744788</v>
       </c>
       <c r="S26">
-        <v>0.002760542478537105</v>
+        <v>0.00159318747029339</v>
       </c>
       <c r="T26">
-        <v>0.002760542478537104</v>
+        <v>0.00159318747029339</v>
       </c>
     </row>
   </sheetData>
